--- a/Dev Notes/Project  Management Backlogs/Pleiades Commerce Product Management.xlsx
+++ b/Dev Notes/Project  Management Backlogs/Pleiades Commerce Product Management.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="671"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="671" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Development Backlog" sheetId="5" r:id="rId1"/>
@@ -199,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +239,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -275,10 +282,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -291,8 +302,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -797,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,7 +825,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -887,8 +900,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
